--- a/PIPE OF CA2.xlsx
+++ b/PIPE OF CA2.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lylkendalbuquerque/Documents/CCT/1 semester/CA2-2023/OTHERS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298A4052-1845-914C-B7B3-5EC628BEE130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B411F5-80C0-1D4C-84DE-860898C54945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="38400" windowHeight="22200" xr2:uid="{97F5DA0A-3D53-4148-89D2-156F916E4685}"/>
+    <workbookView xWindow="1600" yWindow="860" windowWidth="34040" windowHeight="22180" activeTab="2" xr2:uid="{97F5DA0A-3D53-4148-89D2-156F916E4685}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$D$23</definedName>
@@ -191,7 +192,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="52">
   <si>
     <t>Please recall that simply performing the analyses is a requirement to achieve a grade of PASS. Critical analysis and independent research are required for higher marks.</t>
   </si>
@@ -655,6 +656,57 @@
       </rPr>
       <t>[0 - 30]</t>
     </r>
+  </si>
+  <si>
+    <t>CODE</t>
+  </si>
+  <si>
+    <t>BOTH</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>Metric</t>
+  </si>
+  <si>
+    <t>Dublin Reviews</t>
+  </si>
+  <si>
+    <t>Hong Kong Reviews</t>
+  </si>
+  <si>
+    <t>Accuracy (Cross-Validation)</t>
+  </si>
+  <si>
+    <t>Accuracy (Test Set)</t>
+  </si>
+  <si>
+    <t>Precision (Class 0)</t>
+  </si>
+  <si>
+    <t>Precision (Class 1)</t>
+  </si>
+  <si>
+    <t>Recall (Class 0)</t>
+  </si>
+  <si>
+    <t>Recall (Class 1)</t>
+  </si>
+  <si>
+    <t>F1-Score (Class 0)</t>
+  </si>
+  <si>
+    <t>F1-Score (Class 1)</t>
+  </si>
+  <si>
+    <t>Compiled Results in a Table</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Result of Merging - after EDA</t>
   </si>
 </sst>
 </file>
@@ -664,7 +716,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -810,16 +862,61 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -842,12 +939,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -896,6 +1045,44 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -913,6 +1100,335 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>269394</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1795959</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1141717</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2411716</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Right Arrow 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{553CAD04-0A8D-B884-33CF-67775CD813EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6978586" y="1795959"/>
+          <a:ext cx="872323" cy="615757"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 45833"/>
+            <a:gd name="adj2" fmla="val 64583"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>267855</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1897046</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1140178</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2512803</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Right Arrow 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2759F026-0CD5-B147-9BCA-036EBE6E84DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6977047" y="6425430"/>
+          <a:ext cx="872323" cy="615757"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 45833"/>
+            <a:gd name="adj2" fmla="val 64583"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>128284</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76971</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3951112</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4160661</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FD7A773-2F62-2AAF-7133-B0B4D7964977}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect r="5696"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8325557" y="76971"/>
+          <a:ext cx="3822828" cy="4083690"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85859</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>115455</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6644279</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4477070</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9562A543-B083-59C8-08D3-99ED0EEEEE22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85859" y="115455"/>
+          <a:ext cx="6558420" cy="4361615"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>94748</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>43433</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4045124</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>4374444</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ADC5791-1C68-4B6F-1DCE-37183D2495FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8292021" y="4571817"/>
+          <a:ext cx="3950376" cy="4331011"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>25657</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38485</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6665528</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>4323131</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{913BC848-A6FE-26D2-2223-E58FF830830B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect r="3549"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25657" y="4566869"/>
+          <a:ext cx="6639871" cy="4284646"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1228,13 +1744,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0857777-D117-174D-91ED-B36D48AC28F8}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="125" zoomScaleNormal="157" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView zoomScale="125" zoomScaleNormal="157" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="139.1640625" customWidth="1"/>
+    <col min="1" max="1" width="143" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1325,15 +1841,17 @@
       <c r="C6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="22" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="26"/>
     </row>
     <row r="8" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
@@ -1387,15 +1905,17 @@
       <c r="C11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:9" ht="44" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
+      <c r="D11" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="A12" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="26"/>
     </row>
     <row r="13" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
@@ -1404,8 +1924,12 @@
       <c r="B13" s="5">
         <v>30</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
+      <c r="C13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
@@ -1417,7 +1941,9 @@
       <c r="C14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
@@ -1426,8 +1952,12 @@
       <c r="B15" s="5">
         <v>30</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
+      <c r="C15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
@@ -1436,16 +1966,20 @@
       <c r="B16" s="5">
         <v>15</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
+      <c r="C16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="22" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="26"/>
     </row>
     <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
@@ -1455,9 +1989,11 @@
         <v>20</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
@@ -1466,8 +2002,12 @@
       <c r="B19" s="5">
         <v>20</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="5"/>
+      <c r="C19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="18" t="s">
@@ -1476,8 +2016,12 @@
       <c r="B20" s="5">
         <v>20</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
+      <c r="C20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="18" t="s">
@@ -1486,8 +2030,12 @@
       <c r="B21" s="5">
         <v>20</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="5"/>
+      <c r="C21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
@@ -1496,8 +2044,12 @@
       <c r="B22" s="5">
         <v>20</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
+      <c r="C22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
@@ -1509,11 +2061,11 @@
       </c>
       <c r="C23">
         <f>SUMIF(C3:C22,"OK",B3:B22)</f>
-        <v>245</v>
+        <v>400</v>
       </c>
       <c r="D23" s="7">
         <f>C23/B23</f>
-        <v>0.61250000000000004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1546,60 +2098,142 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA0AF1F-5886-9248-9891-ED9DCE39AE8F}">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B20"/>
+      <selection sqref="A1:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="32.1640625" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.5" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="8"/>
-    </row>
-    <row r="3" spans="1:2" ht="20" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
-    </row>
-    <row r="5" spans="1:2" ht="20" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-    </row>
-    <row r="7" spans="1:2" ht="20" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-    </row>
-    <row r="8" spans="1:2" ht="20" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-    </row>
-    <row r="9" spans="1:2" ht="20" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-    </row>
-    <row r="10" spans="1:2" ht="20" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-    </row>
-    <row r="11" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+    </row>
+    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="22">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="C3" s="22">
+        <v>0.61199999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="23">
+        <v>0.79</v>
+      </c>
+      <c r="C4" s="23">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="C5" s="22">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="23">
+        <v>0.79</v>
+      </c>
+      <c r="C6" s="23">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="C7" s="22">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="23">
+        <v>0.97</v>
+      </c>
+      <c r="C8" s="23">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="22">
+        <v>0.38</v>
+      </c>
+      <c r="C9" s="22">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="23">
+        <v>0.87</v>
+      </c>
+      <c r="C10" s="23">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
     </row>
-    <row r="12" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
     </row>
-    <row r="13" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
     </row>
-    <row r="14" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
     </row>
-    <row r="16" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
     </row>
@@ -1708,6 +2342,58 @@
       <c r="B47" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF405F4E-2C69-0141-AB32-103E58674299}">
+  <dimension ref="C1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="3" customWidth="1"/>
+    <col min="3" max="3" width="88" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="5" max="5" width="57.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:7" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="3:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+    </row>
+    <row r="3" spans="3:7" ht="357" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+    </row>
+    <row r="4" spans="3:7" ht="352" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>